--- a/sheets/ubuntu-chrome-fair.xlsx
+++ b/sheets/ubuntu-chrome-fair.xlsx
@@ -259,7 +259,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -337,7 +337,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40.3</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -415,7 +415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40.3</c:v>
+                  <c:v>40.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -426,11 +426,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="32086105"/>
-        <c:axId val="55473569"/>
+        <c:axId val="80739526"/>
+        <c:axId val="2878880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32086105"/>
+        <c:axId val="80739526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55473569"/>
+        <c:crossAx val="2878880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -466,7 +466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55473569"/>
+        <c:axId val="2878880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32086105"/>
+        <c:crossAx val="80739526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -556,15 +556,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>680040</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:colOff>665280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:colOff>729720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -572,8 +572,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2649240" y="600480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="2634480" y="449280"/>
+        <a:ext cx="5753880" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -700,7 +700,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>180</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>180</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>180</v>
